--- a/CodeSystem-medication-dose-aid.xlsx
+++ b/CodeSystem-medication-dose-aid.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:22:22-06:00</t>
+    <t>2026-02-09T22:08:15-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-dose-aid.xlsx
+++ b/CodeSystem-medication-dose-aid.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:08:15-06:00</t>
+    <t>2026-02-17T15:29:43-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-medication-dose-aid.xlsx
+++ b/CodeSystem-medication-dose-aid.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T15:29:43-06:00</t>
+    <t>2026-02-20T12:00:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Pharmacy</t>
+    <t>FHIR Infrastructure</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Pharmacy (http://www.hl7.org/Special/committees/medication)</t>
+    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/CodeSystem-medication-dose-aid.xlsx
+++ b/CodeSystem-medication-dose-aid.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-snapshot-3</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T12:00:12-06:00</t>
+    <t>2026-02-21T13:39:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>FHIR Infrastructure</t>
+    <t>Pharmacy</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>FHIR Infrastructure (http://www.hl7.org/Special/committees/fiwg)</t>
+    <t>Pharmacy (http://www.hl7.org/Special/committees/medication)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
